--- a/public/app-assets/ImportSamples/9-SalesPlanInstallmentsImport.xlsx
+++ b/public/app-assets/ImportSamples/9-SalesPlanInstallmentsImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400"/>
+    <workbookView windowWidth="28800" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>unit_short_label *</t>
   </si>
@@ -46,10 +46,10 @@
     <t>due_date</t>
   </si>
   <si>
-    <t>1F-04</t>
-  </si>
-  <si>
-    <t>123456789012364</t>
+    <t>1F-01</t>
+  </si>
+  <si>
+    <t>1234567890125</t>
   </si>
   <si>
     <t>downpayment</t>
@@ -58,10 +58,7 @@
     <t>installment</t>
   </si>
   <si>
-    <t>1F-07</t>
-  </si>
-  <si>
-    <t>1234567890126</t>
+    <t>2F-08</t>
   </si>
   <si>
     <t>expense</t>
@@ -75,11 +72,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -138,7 +135,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,13 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -169,7 +181,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,75 +196,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,7 +242,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,181 +290,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,65 +475,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,7 +497,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,142 +516,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,7 +1009,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -1069,13 +1066,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="3">
-        <v>32100000</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="3">
-        <v>3399500</v>
+        <v>2500</v>
       </c>
       <c r="E2" s="7">
-        <v>44862</v>
+        <v>44859</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -1099,13 +1096,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="3">
-        <v>32100000</v>
+        <v>10000</v>
       </c>
       <c r="D3" s="3">
-        <v>3399500</v>
+        <v>2500</v>
       </c>
       <c r="E3" s="7">
-        <v>44862</v>
+        <v>44859</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
@@ -1129,13 +1126,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="3">
-        <v>32100000</v>
+        <v>10000</v>
       </c>
       <c r="D4" s="3">
-        <v>3399500</v>
+        <v>2500</v>
       </c>
       <c r="E4" s="7">
-        <v>44862</v>
+        <v>44859</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
@@ -1159,13 +1156,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>32100000</v>
+        <v>10000</v>
       </c>
       <c r="D5" s="3">
-        <v>3399500</v>
+        <v>2500</v>
       </c>
       <c r="E5" s="7">
-        <v>44862</v>
+        <v>44859</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
@@ -1186,16 +1183,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
-        <v>32100000</v>
+        <v>10000</v>
       </c>
       <c r="D6" s="3">
-        <v>3399500</v>
+        <v>2500</v>
       </c>
       <c r="E6" s="7">
-        <v>44863</v>
+        <v>44862</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -1216,16 +1213,16 @@
         <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>32100000</v>
+        <v>10000</v>
       </c>
       <c r="D7" s="3">
-        <v>3399500</v>
+        <v>2500</v>
       </c>
       <c r="E7" s="7">
-        <v>44863</v>
+        <v>44862</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
@@ -1246,16 +1243,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>32100000</v>
+        <v>10000</v>
       </c>
       <c r="D8" s="3">
-        <v>3399500</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="7">
-        <v>44863</v>
+        <v>44862</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
@@ -1276,22 +1273,22 @@
         <v>14</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="7">
+        <v>44862</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
-        <v>32100000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3399500</v>
-      </c>
-      <c r="E9" s="7">
-        <v>44863</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H9" s="3">
         <v>3</v>

--- a/public/app-assets/ImportSamples/9-SalesPlanInstallmentsImport.xlsx
+++ b/public/app-assets/ImportSamples/9-SalesPlanInstallmentsImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11745"/>
+    <workbookView windowWidth="21450" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -134,8 +134,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,15 +150,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,14 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -187,6 +196,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -194,15 +227,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -210,54 +256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,13 +290,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,25 +386,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,55 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,73 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +475,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,15 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,15 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -560,157 +575,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,7 +738,7 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
